--- a/01_ドキュメント/01_要件定義/KiracuChat.xlsx
+++ b/01_ドキュメント/01_要件定義/KiracuChat.xlsx
@@ -5,39 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riyousya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Kiracu_Flyer\01_ドキュメント\01_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96ADC01-0D05-4E44-88F3-9B523CFA76AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242D98A8-30C7-4313-9CE7-1E5ABA40EAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4CD57FAD-15A0-4049-8BC7-0F2C6175D80F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{4CD57FAD-15A0-4049-8BC7-0F2C6175D80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Kiracu Chat</t>
     <phoneticPr fontId="1"/>
@@ -194,6 +184,112 @@
     <rPh sb="0" eb="1">
       <t>イタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者メアド</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者PW</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連番</t>
+    <rPh sb="0" eb="2">
+      <t>レンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿ID</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メディアURL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿内容</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日時</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効か</t>
+    <rPh sb="0" eb="2">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクティブかどうか</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -996,6 +1092,382 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C43B2AC4-B0EF-3693-1BA4-BFC96390F67D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="365760"/>
+          <a:ext cx="845820" cy="4076700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>グループ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B5F320-DDA6-443F-8006-FB74CD80B6EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2011680" y="2286000"/>
+          <a:ext cx="617220" cy="1379220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>チャンネル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2B95AC5-3E4A-4676-BD9E-E3CE9645DDDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3482340" y="2453640"/>
+          <a:ext cx="1150620" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A0D76A-0776-4F24-AC14-5CF15C2F2433}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3512820" y="2971800"/>
+          <a:ext cx="1150620" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E0A3B4-91D2-49BB-9BF9-2E86AC017F3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3497580" y="3505200"/>
+          <a:ext cx="1150620" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF867FD-8F95-4F78-ADD3-559BB974227A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5394960" y="2583180"/>
+          <a:ext cx="1150620" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1326,7 +1798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46ECE99C-35FB-498B-9BFA-57F07C7CC794}">
   <dimension ref="B2:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -1462,4 +1934,107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336F2129-7F87-48A4-B8D4-C43B7F5D9F31}">
+  <dimension ref="B15:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="15" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/01_ドキュメント/01_要件定義/KiracuChat.xlsx
+++ b/01_ドキュメント/01_要件定義/KiracuChat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Kiracu_Flyer\01_ドキュメント\01_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242D98A8-30C7-4313-9CE7-1E5ABA40EAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918EB060-816D-4ED6-BD61-B2F6DE641CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{4CD57FAD-15A0-4049-8BC7-0F2C6175D80F}"/>
   </bookViews>
@@ -1259,15 +1259,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1282,7 +1282,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3482340" y="2453640"/>
+          <a:off x="3368040" y="2316480"/>
           <a:ext cx="1150620" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1319,15 +1319,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1342,7 +1342,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3512820" y="2971800"/>
+          <a:off x="3368040" y="2987040"/>
           <a:ext cx="1150620" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1379,15 +1379,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1402,7 +1402,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3497580" y="3505200"/>
+          <a:off x="3375660" y="3657600"/>
           <a:ext cx="1150620" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1940,9 +1940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336F2129-7F87-48A4-B8D4-C43B7F5D9F31}">
   <dimension ref="B15:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
